--- a/Reports/day4/tp4_2.xlsx
+++ b/Reports/day4/tp4_2.xlsx
@@ -4,13 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Questions" sheetId="2" r:id="rId2"/>
+    <sheet name="Solution" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="20" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -197,13 +203,67 @@
   </si>
   <si>
     <t>             18 &lt;= Average: Excellent</t>
+  </si>
+  <si>
+    <t>Boys</t>
+  </si>
+  <si>
+    <t>BDMOYENNE</t>
+  </si>
+  <si>
+    <t>DAVERAGE</t>
+  </si>
+  <si>
+    <t>daverage</t>
+  </si>
+  <si>
+    <t>bdmoyenne</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Résultat cumulé</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>moy</t>
+  </si>
+  <si>
+    <t>moy_M</t>
+  </si>
+  <si>
+    <t>Étiquettes de lignes</t>
+  </si>
+  <si>
+    <t>Total général</t>
+  </si>
+  <si>
+    <t>Moyenne de Grade</t>
+  </si>
+  <si>
+    <t>Girls</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>ecart type</t>
+  </si>
+  <si>
+    <t>=BDMOYENNE()'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +272,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF2D3B45"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF2D3B45"/>
       <name val="Arial"/>
@@ -241,20 +323,336 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -265,6 +663,234 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Auteur" refreshedDate="43858.475911574074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tableau2"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Firstname" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Gender" numFmtId="0">
+      <sharedItems count="2">
+        <s v="F"/>
+        <s v="M"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Grade" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4" maxValue="18.5"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
+  <r>
+    <s v="Nom1"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <s v="Nom2"/>
+    <s v="P2"/>
+    <x v="1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="Nom3"/>
+    <s v="P3"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Nom4"/>
+    <s v="P4"/>
+    <x v="1"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <s v="Nom5"/>
+    <s v="P5"/>
+    <x v="1"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <s v="Nom6"/>
+    <s v="P6"/>
+    <x v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="Nom7"/>
+    <s v="P7"/>
+    <x v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <s v="Nom8"/>
+    <s v="P8"/>
+    <x v="1"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <s v="Nom9"/>
+    <s v="P9"/>
+    <x v="1"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <s v="Nom10"/>
+    <s v="P10"/>
+    <x v="1"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <s v="Nom11"/>
+    <s v="P11"/>
+    <x v="1"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <s v="Nom12"/>
+    <s v="P12"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="Nom13"/>
+    <s v="P13"/>
+    <x v="0"/>
+    <n v="18.5"/>
+  </r>
+  <r>
+    <s v="Nom14"/>
+    <s v="P14"/>
+    <x v="0"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <s v="Nom15"/>
+    <s v="P15"/>
+    <x v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <s v="Nom16"/>
+    <s v="P16"/>
+    <x v="0"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <s v="Nom17"/>
+    <s v="P17"/>
+    <x v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <s v="Nom18"/>
+    <s v="P18"/>
+    <x v="0"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <s v="Nom19"/>
+    <s v="P19"/>
+    <x v="1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="Nom20"/>
+    <s v="P20"/>
+    <x v="0"/>
+    <n v="16"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique8" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Moyenne de Grade" fld="3" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A31:D51" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+  <autoFilter ref="A31:D51"/>
+  <sortState ref="A32:D51">
+    <sortCondition ref="D31:D51"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Name" dataDxfId="7"/>
+    <tableColumn id="2" name="Firstname" dataDxfId="6"/>
+    <tableColumn id="3" name="Gender" dataDxfId="5"/>
+    <tableColumn id="4" name="Grade" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+  <autoFilter ref="A1:D21"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Name" dataDxfId="13"/>
+    <tableColumn id="2" name="Firstname" dataDxfId="12"/>
+    <tableColumn id="3" name="Gender" dataDxfId="11"/>
+    <tableColumn id="4" name="Grade" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,7 +1159,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,11 +1468,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -913,7 +1544,1130 @@
         <v>58</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1">
+        <f>AVERAGE(D2:D21)</f>
+        <v>12.225</v>
+      </c>
+      <c r="M1">
+        <f>SUM(D2:D21)/COUNT(D2:D21)</f>
+        <v>12.225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGEIF(C2:C21, "M", D2:D21)</f>
+        <v>11.615384615384615</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGEIF(C2:C21, "F", D2:D21)</f>
+        <v>13.357142857142858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.VAR.S(D2:D21)</f>
+        <v>17.01250000000001</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3">
+        <f>STDEVA(D2:D21)</f>
+        <v>4.1246211947280695</v>
+      </c>
+      <c r="O3">
+        <f>SQRT(L3)</f>
+        <v>4.1246211947280695</v>
+      </c>
+      <c r="P3">
+        <f>_xlfn.STDEV.S(D2:D21)</f>
+        <v>4.1246211947280695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIF(D2:D21, "&gt;=10")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <f>COUNTIF(D2:D21, "&lt;10")</f>
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <f>20-L4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" t="e">
+        <f>DAVERAGE(D2:D21, C2:C3, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>18.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A32:D51">
+    <sortCondition ref="D32:D51"/>
+  </sortState>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>13.357142857142858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
+        <v>11.615384615384615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="7">
+        <v>12.225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(Tableau2[Grade])</f>
+        <v>12.225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(D3:D20)</f>
+        <v>12.083333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>